--- a/data/outputs/OR_altmetric/26.xlsx
+++ b/data/outputs/OR_altmetric/26.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE124"/>
+  <dimension ref="A1:CF124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1037,6 +1042,9 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1529,6 +1540,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1772,6 +1786,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2015,6 +2032,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2262,6 +2282,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2505,6 +2528,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2746,6 +2772,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3003,6 +3032,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3254,6 +3286,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3503,6 +3538,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3758,6 +3796,9 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3997,6 +4038,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4250,6 +4294,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4497,6 +4544,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4740,6 +4790,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4983,6 +5036,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5226,6 +5282,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5475,6 +5534,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5724,6 +5786,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5975,6 +6040,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6218,6 +6286,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6461,6 +6532,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6704,6 +6778,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6953,6 +7030,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7204,6 +7284,9 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7447,6 +7530,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7696,6 +7782,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7951,6 +8040,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8200,6 +8292,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8443,6 +8538,9 @@
         <v>0</v>
       </c>
       <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8686,6 +8784,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8937,6 +9038,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9184,6 +9288,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9429,6 +9536,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9674,6 +9784,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9931,6 +10044,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10192,6 +10308,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10449,6 +10568,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10700,6 +10822,9 @@
         <v>0</v>
       </c>
       <c r="CE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10943,6 +11068,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11194,6 +11322,9 @@
         <v>0</v>
       </c>
       <c r="CE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11437,6 +11568,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11682,6 +11816,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11923,6 +12060,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12168,6 +12308,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12413,6 +12556,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12662,6 +12808,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12911,6 +13060,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13168,6 +13320,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13419,6 +13574,9 @@
         <v>0</v>
       </c>
       <c r="CE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13662,6 +13820,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13907,6 +14068,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14160,6 +14324,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14413,6 +14580,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14662,6 +14832,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14919,6 +15092,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15176,6 +15352,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15425,6 +15604,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15682,6 +15864,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15931,6 +16116,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16181,6 +16369,9 @@
       </c>
       <c r="CE63" t="n">
         <v>0</v>
+      </c>
+      <c r="CF63" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="64">
@@ -16421,6 +16612,9 @@
         <v>0</v>
       </c>
       <c r="CE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16664,6 +16858,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16921,6 +17118,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17182,6 +17382,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17435,6 +17638,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17701,6 +17907,9 @@
       </c>
       <c r="CE69" t="n">
         <v>0</v>
+      </c>
+      <c r="CF69" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="70">
@@ -17951,6 +18160,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18190,6 +18402,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18437,6 +18652,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18676,6 +18894,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18915,6 +19136,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19158,6 +19382,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19405,6 +19632,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19644,6 +19874,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19883,6 +20116,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20130,6 +20366,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20373,6 +20612,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20624,6 +20866,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20863,6 +21108,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21110,6 +21358,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21349,6 +21600,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21596,6 +21850,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21851,6 +22108,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22106,6 +22366,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22345,6 +22608,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22596,6 +22862,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22835,6 +23104,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23086,6 +23358,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23329,6 +23604,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23580,6 +23858,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23835,6 +24116,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24082,6 +24366,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24331,6 +24618,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24574,6 +24864,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24829,6 +25122,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25076,6 +25372,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25327,6 +25626,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25566,6 +25868,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25813,6 +26118,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26052,6 +26360,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26291,6 +26602,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26534,6 +26848,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26785,6 +27102,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -27024,6 +27344,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27271,6 +27594,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27526,6 +27852,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27773,6 +28102,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28012,6 +28344,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28259,6 +28594,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28512,6 +28850,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28759,6 +29100,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -28994,6 +29338,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29249,6 +29596,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29500,6 +29850,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29739,6 +30092,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -29978,6 +30334,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30225,6 +30584,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30480,6 +30842,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30719,6 +31084,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -30970,6 +31338,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31227,6 +31598,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
